--- a/CommonFiles/SQL/emp_dept.xlsx
+++ b/CommonFiles/SQL/emp_dept.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiadongpo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiadongpo/Workspaces/GithubJiadongpo/ExerciseSuite/CommonFiles/SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="33600" windowHeight="19420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="各职位的总工资" sheetId="1" r:id="rId1"/>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
